--- a/natmiOut/OldD4/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H2">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I2">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J2">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>1.039804742762906</v>
+        <v>2.066766962717333</v>
       </c>
       <c r="R2">
-        <v>1.039804742762906</v>
+        <v>18.600902664456</v>
       </c>
       <c r="S2">
-        <v>6.641373224523248E-06</v>
+        <v>1.140966817815706E-05</v>
       </c>
       <c r="T2">
-        <v>6.641373224523248E-06</v>
+        <v>1.174982244561822E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H3">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I3">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J3">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>54.18080739758458</v>
+        <v>97.29988053326967</v>
       </c>
       <c r="R3">
-        <v>54.18080739758458</v>
+        <v>875.6989247994271</v>
       </c>
       <c r="S3">
-        <v>0.0003460601291135079</v>
+        <v>0.0005371478113813667</v>
       </c>
       <c r="T3">
-        <v>0.0003460601291135079</v>
+        <v>0.0005531616969252588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H4">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I4">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J4">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>35.77460512056278</v>
+        <v>61.44748835890967</v>
       </c>
       <c r="R4">
-        <v>35.77460512056278</v>
+        <v>553.027395230187</v>
       </c>
       <c r="S4">
-        <v>0.0002284972310611715</v>
+        <v>0.0003392232724847436</v>
       </c>
       <c r="T4">
-        <v>0.0002284972310611715</v>
+        <v>0.0003493364713925548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H5">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I5">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J5">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>41.99126393068167</v>
+        <v>73.19071294485367</v>
       </c>
       <c r="R5">
-        <v>41.99126393068167</v>
+        <v>658.716416503683</v>
       </c>
       <c r="S5">
-        <v>0.0002682038698843553</v>
+        <v>0.0004040522049595665</v>
       </c>
       <c r="T5">
-        <v>0.0002682038698843553</v>
+        <v>0.0004160981365018358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H6">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I6">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J6">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>12.69458685312132</v>
+        <v>21.710735822302</v>
       </c>
       <c r="R6">
-        <v>12.69458685312132</v>
+        <v>130.264414933812</v>
       </c>
       <c r="S6">
-        <v>8.108203949780286E-05</v>
+        <v>0.0001198549696722497</v>
       </c>
       <c r="T6">
-        <v>8.108203949780286E-05</v>
+        <v>8.228545539240865E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H7">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J7">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>926.9760810403735</v>
+        <v>1148.078563448227</v>
       </c>
       <c r="R7">
-        <v>926.9760810403735</v>
+        <v>10332.70707103404</v>
       </c>
       <c r="S7">
-        <v>0.005920721334696579</v>
+        <v>0.006338012793748652</v>
       </c>
       <c r="T7">
-        <v>0.005920721334696579</v>
+        <v>0.006526966763781221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H8">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J8">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>48301.67669322532</v>
+        <v>54049.59005124099</v>
       </c>
       <c r="R8">
-        <v>48301.67669322532</v>
+        <v>486446.3104611689</v>
       </c>
       <c r="S8">
-        <v>0.3085093278547497</v>
+        <v>0.2983828843670274</v>
       </c>
       <c r="T8">
-        <v>0.3085093278547497</v>
+        <v>0.307278516551066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H9">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J9">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>31892.72167321487</v>
+        <v>34133.76807119359</v>
       </c>
       <c r="R9">
-        <v>31892.72167321487</v>
+        <v>307203.9126407423</v>
       </c>
       <c r="S9">
-        <v>0.2037031175822961</v>
+        <v>0.1884368070459406</v>
       </c>
       <c r="T9">
-        <v>0.2037031175822961</v>
+        <v>0.1940546377367701</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H10">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I10">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J10">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>37434.81412958974</v>
+        <v>40657.06975739555</v>
       </c>
       <c r="R10">
-        <v>37434.81412958974</v>
+        <v>365913.6278165599</v>
       </c>
       <c r="S10">
-        <v>0.2391012100643507</v>
+        <v>0.2244489501700593</v>
       </c>
       <c r="T10">
-        <v>0.2391012100643507</v>
+        <v>0.2311404040349214</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H11">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I11">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J11">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>11317.10395960009</v>
+        <v>12060.20361458693</v>
       </c>
       <c r="R11">
-        <v>11317.10395960009</v>
+        <v>72361.22168752158</v>
       </c>
       <c r="S11">
-        <v>0.07228387035119738</v>
+        <v>0.06657882764998835</v>
       </c>
       <c r="T11">
-        <v>0.07228387035119738</v>
+        <v>0.04570915305100129</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.8501770556849</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H12">
-        <v>18.8501770556849</v>
+        <v>116.052725</v>
       </c>
       <c r="I12">
-        <v>0.05666254467272393</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J12">
-        <v>0.05666254467272393</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>63.31967232860347</v>
+        <v>152.6741165850444</v>
       </c>
       <c r="R12">
-        <v>63.31967232860347</v>
+        <v>1374.0670492654</v>
       </c>
       <c r="S12">
-        <v>0.0004044312928130783</v>
+        <v>0.000842843456012252</v>
       </c>
       <c r="T12">
-        <v>0.0004044312928130783</v>
+        <v>0.0008679709876711603</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.8501770556849</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H13">
-        <v>18.8501770556849</v>
+        <v>116.052725</v>
       </c>
       <c r="I13">
-        <v>0.05666254467272393</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J13">
-        <v>0.05666254467272393</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>3299.379998785495</v>
+        <v>7187.638264120546</v>
       </c>
       <c r="R13">
-        <v>3299.379998785495</v>
+        <v>64688.74437708492</v>
       </c>
       <c r="S13">
-        <v>0.02107358533799065</v>
+        <v>0.03967963929054557</v>
       </c>
       <c r="T13">
-        <v>0.02107358533799065</v>
+        <v>0.04086260083028938</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.8501770556849</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H14">
-        <v>18.8501770556849</v>
+        <v>116.052725</v>
       </c>
       <c r="I14">
-        <v>0.05666254467272393</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J14">
-        <v>0.05666254467272393</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>2178.520813340556</v>
+        <v>4539.186647938214</v>
       </c>
       <c r="R14">
-        <v>2178.520813340556</v>
+        <v>40852.67983144393</v>
       </c>
       <c r="S14">
-        <v>0.01391450644891472</v>
+        <v>0.02505875814059029</v>
       </c>
       <c r="T14">
-        <v>0.01391450644891472</v>
+        <v>0.02580583013126546</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.8501770556849</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H15">
-        <v>18.8501770556849</v>
+        <v>116.052725</v>
       </c>
       <c r="I15">
-        <v>0.05666254467272393</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J15">
-        <v>0.05666254467272393</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>2557.088810433459</v>
+        <v>5406.67024519948</v>
       </c>
       <c r="R15">
-        <v>2557.088810433459</v>
+        <v>48660.03220679532</v>
       </c>
       <c r="S15">
-        <v>0.01633247133804726</v>
+        <v>0.02984773540473807</v>
       </c>
       <c r="T15">
-        <v>0.01633247133804726</v>
+        <v>0.03073758026380331</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.8501770556849</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H16">
-        <v>18.8501770556849</v>
+        <v>116.052725</v>
       </c>
       <c r="I16">
-        <v>0.05666254467272393</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J16">
-        <v>0.05666254467272393</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>773.0461757183226</v>
+        <v>1603.793495771383</v>
       </c>
       <c r="R16">
-        <v>773.0461757183226</v>
+        <v>9622.7609746283</v>
       </c>
       <c r="S16">
-        <v>0.004937550254958225</v>
+        <v>0.008853804973241529</v>
       </c>
       <c r="T16">
-        <v>0.004937550254958225</v>
+        <v>0.006078507851372241</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.0042508650679</v>
+        <v>40.106198</v>
       </c>
       <c r="H17">
-        <v>37.0042508650679</v>
+        <v>120.318594</v>
       </c>
       <c r="I17">
-        <v>0.1112326431485824</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J17">
-        <v>0.1112326431485824</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>124.3010626701197</v>
+        <v>158.2861156229173</v>
       </c>
       <c r="R17">
-        <v>124.3010626701197</v>
+        <v>1424.575040606256</v>
       </c>
       <c r="S17">
-        <v>0.000793927662999085</v>
+        <v>0.0008738247170800599</v>
       </c>
       <c r="T17">
-        <v>0.000793927662999085</v>
+        <v>0.0008998758871830483</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>37.0042508650679</v>
+        <v>40.106198</v>
       </c>
       <c r="H18">
-        <v>37.0042508650679</v>
+        <v>120.318594</v>
       </c>
       <c r="I18">
-        <v>0.1112326431485824</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J18">
-        <v>0.1112326431485824</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>6476.919808953479</v>
+        <v>7451.841653176044</v>
       </c>
       <c r="R18">
-        <v>6476.919808953479</v>
+        <v>67066.57487858439</v>
       </c>
       <c r="S18">
-        <v>0.04136896094767686</v>
+        <v>0.04113818447490656</v>
       </c>
       <c r="T18">
-        <v>0.04136896094767686</v>
+        <v>0.04236462934484003</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>37.0042508650679</v>
+        <v>40.106198</v>
       </c>
       <c r="H19">
-        <v>37.0042508650679</v>
+        <v>120.318594</v>
       </c>
       <c r="I19">
-        <v>0.1112326431485824</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J19">
-        <v>0.1112326431485824</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>4276.592758438505</v>
+        <v>4706.038185518685</v>
       </c>
       <c r="R19">
-        <v>4276.592758438505</v>
+        <v>42354.34366966816</v>
       </c>
       <c r="S19">
-        <v>0.02731517511894995</v>
+        <v>0.02597986860594508</v>
       </c>
       <c r="T19">
-        <v>0.02731517511894995</v>
+        <v>0.02675440148774356</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.0042508650679</v>
+        <v>40.106198</v>
       </c>
       <c r="H20">
-        <v>37.0042508650679</v>
+        <v>120.318594</v>
       </c>
       <c r="I20">
-        <v>0.1112326431485824</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J20">
-        <v>0.1112326431485824</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>5019.748915143532</v>
+        <v>5605.408766782828</v>
       </c>
       <c r="R20">
-        <v>5019.748915143532</v>
+        <v>50448.67890104545</v>
       </c>
       <c r="S20">
-        <v>0.03206181378850041</v>
+        <v>0.03094487921746004</v>
       </c>
       <c r="T20">
-        <v>0.03206181378850041</v>
+        <v>0.03186743301635496</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.0042508650679</v>
+        <v>40.106198</v>
       </c>
       <c r="H21">
-        <v>37.0042508650679</v>
+        <v>120.318594</v>
       </c>
       <c r="I21">
-        <v>0.1112326431485824</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J21">
-        <v>0.1112326431485824</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>1517.545141992981</v>
+        <v>1662.745777641652</v>
       </c>
       <c r="R21">
-        <v>1517.545141992981</v>
+        <v>9976.474665849912</v>
       </c>
       <c r="S21">
-        <v>0.00969276563045607</v>
+        <v>0.009179253360320737</v>
       </c>
       <c r="T21">
-        <v>0.00969276563045607</v>
+        <v>0.006301941796671031</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.550935507225664</v>
+        <v>0.7434085</v>
       </c>
       <c r="H22">
-        <v>0.550935507225664</v>
+        <v>1.486817</v>
       </c>
       <c r="I22">
-        <v>0.001656080348621943</v>
+        <v>0.002004038405719556</v>
       </c>
       <c r="J22">
-        <v>0.001656080348621943</v>
+        <v>0.001336918682608127</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>1.850648706835422</v>
+        <v>2.933991493934667</v>
       </c>
       <c r="R22">
-        <v>1.850648706835422</v>
+        <v>17.603948963608</v>
       </c>
       <c r="S22">
-        <v>1.182034305490552E-05</v>
+        <v>1.619721525803597E-05</v>
       </c>
       <c r="T22">
-        <v>1.182034305490552E-05</v>
+        <v>1.112006650405039E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.550935507225664</v>
+        <v>0.7434085</v>
       </c>
       <c r="H23">
-        <v>0.550935507225664</v>
+        <v>1.486817</v>
       </c>
       <c r="I23">
-        <v>0.001656080348621943</v>
+        <v>0.002004038405719556</v>
       </c>
       <c r="J23">
-        <v>0.001656080348621943</v>
+        <v>0.001336918682608127</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>96.43122119178693</v>
+        <v>138.1273394607268</v>
       </c>
       <c r="R23">
-        <v>96.43122119178693</v>
+        <v>828.764036764361</v>
       </c>
       <c r="S23">
-        <v>0.000615919224151147</v>
+        <v>0.0007625374016558132</v>
       </c>
       <c r="T23">
-        <v>0.000615919224151147</v>
+        <v>0.00052351385612607</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.550935507225664</v>
+        <v>0.7434085</v>
       </c>
       <c r="H24">
-        <v>0.550935507225664</v>
+        <v>1.486817</v>
       </c>
       <c r="I24">
-        <v>0.001656080348621943</v>
+        <v>0.002004038405719556</v>
       </c>
       <c r="J24">
-        <v>0.001656080348621943</v>
+        <v>0.001336918682608127</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>63.67178757811601</v>
+        <v>87.23112543450684</v>
       </c>
       <c r="R24">
-        <v>63.67178757811601</v>
+        <v>523.3867526070411</v>
       </c>
       <c r="S24">
-        <v>0.0004066803004333409</v>
+        <v>0.0004815628534657592</v>
       </c>
       <c r="T24">
-        <v>0.0004066803004333409</v>
+        <v>0.0003306130634871151</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.550935507225664</v>
+        <v>0.7434085</v>
       </c>
       <c r="H25">
-        <v>0.550935507225664</v>
+        <v>1.486817</v>
       </c>
       <c r="I25">
-        <v>0.001656080348621943</v>
+        <v>0.002004038405719556</v>
       </c>
       <c r="J25">
-        <v>0.001656080348621943</v>
+        <v>0.001336918682608127</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>74.73622219226633</v>
+        <v>103.9018588398948</v>
       </c>
       <c r="R25">
-        <v>74.73622219226633</v>
+        <v>623.4111530393691</v>
       </c>
       <c r="S25">
-        <v>0.0004773503375747867</v>
+        <v>0.0005735942918781068</v>
       </c>
       <c r="T25">
-        <v>0.0004773503375747867</v>
+        <v>0.0003937964996090117</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.550935507225664</v>
+        <v>0.7434085</v>
       </c>
       <c r="H26">
-        <v>0.550935507225664</v>
+        <v>1.486817</v>
       </c>
       <c r="I26">
-        <v>0.001656080348621943</v>
+        <v>0.002004038405719556</v>
       </c>
       <c r="J26">
-        <v>0.001656080348621943</v>
+        <v>0.001336918682608127</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>22.59387727075964</v>
+        <v>30.820656309479</v>
       </c>
       <c r="R26">
-        <v>22.59387727075964</v>
+        <v>123.282625237916</v>
       </c>
       <c r="S26">
-        <v>0.0001443101434077633</v>
+        <v>0.0001701466434618409</v>
       </c>
       <c r="T26">
-        <v>0.0001443101434077633</v>
+        <v>7.787519688188038E-05</v>
       </c>
     </row>
   </sheetData>
